--- a/public/support files/array grouped data.xlsx
+++ b/public/support files/array grouped data.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="arrayBuilder" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="145">
   <si>
     <t>if ($('#dparameters').html().trim()==2) { var dataparameter=[['ZT','left','Zone Temperature','smoothedLine'],['ZRVS','right','Zone Reheat Valve Signal (%)','column'],['OAT','left','Outdoor/Air Temp (temp)','smoothedLine']]; }</t>
   </si>
@@ -121,6 +122,345 @@
   </si>
   <si>
     <t>);</t>
+  </si>
+  <si>
+    <t>datereading</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>timereading</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>dataset_id</t>
+  </si>
+  <si>
+    <t>data set</t>
+  </si>
+  <si>
+    <t>a01OM</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Occupancy Mode</t>
+  </si>
+  <si>
+    <t>building info</t>
+  </si>
+  <si>
+    <t>1 0</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>a02OAT</t>
+  </si>
+  <si>
+    <t>OAT</t>
+  </si>
+  <si>
+    <t>Outdoor-Air Temp (temp)</t>
+  </si>
+  <si>
+    <t>floatnumber</t>
+  </si>
+  <si>
+    <t>°F</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>smoothedLine</t>
+  </si>
+  <si>
+    <t>a03ZT</t>
+  </si>
+  <si>
+    <t>ZT</t>
+  </si>
+  <si>
+    <t>Zone Temperature</t>
+  </si>
+  <si>
+    <t>a04ZONE</t>
+  </si>
+  <si>
+    <t>ZONE</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>zone name</t>
+  </si>
+  <si>
+    <t>a05ConskWH</t>
+  </si>
+  <si>
+    <t>ConskWH</t>
+  </si>
+  <si>
+    <t>Consumption kWH</t>
+  </si>
+  <si>
+    <t>kW/h</t>
+  </si>
+  <si>
+    <t>b01ZRVS</t>
+  </si>
+  <si>
+    <t>ZRVS</t>
+  </si>
+  <si>
+    <t>Zone Reheat Valve Signal (%)</t>
+  </si>
+  <si>
+    <t>Air handle unit</t>
+  </si>
+  <si>
+    <t>Percent%</t>
+  </si>
+  <si>
+    <t>b02DAT</t>
+  </si>
+  <si>
+    <t>DAT</t>
+  </si>
+  <si>
+    <t>Discharge-Air Temp</t>
+  </si>
+  <si>
+    <t>b03DATSP</t>
+  </si>
+  <si>
+    <t>DATSP</t>
+  </si>
+  <si>
+    <t>Discharge-Air Temp Set Point</t>
+  </si>
+  <si>
+    <t>b04DSP</t>
+  </si>
+  <si>
+    <t>DSP</t>
+  </si>
+  <si>
+    <t>Duct Static Pressure</t>
+  </si>
+  <si>
+    <t>wc</t>
+  </si>
+  <si>
+    <t>b05DSPSP</t>
+  </si>
+  <si>
+    <t>DSPSP</t>
+  </si>
+  <si>
+    <t>Duct Static Pressure Set Point</t>
+  </si>
+  <si>
+    <t>b06MAT</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>Mixed-Air Temp</t>
+  </si>
+  <si>
+    <t>b07OADPS</t>
+  </si>
+  <si>
+    <t>OADPS</t>
+  </si>
+  <si>
+    <t>Outdoor-Air Damper Position Signal (%)</t>
+  </si>
+  <si>
+    <t>b08OAF</t>
+  </si>
+  <si>
+    <t>OAF</t>
+  </si>
+  <si>
+    <t>Outdoor-Air Fraction (%)</t>
+  </si>
+  <si>
+    <t>b09RAT</t>
+  </si>
+  <si>
+    <t>Return-Air Temp</t>
+  </si>
+  <si>
+    <t>b10SFSpd</t>
+  </si>
+  <si>
+    <t>SFSpd</t>
+  </si>
+  <si>
+    <t>Supply-Fan Speed (rpm)</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>b11SFS</t>
+  </si>
+  <si>
+    <t>SFS</t>
+  </si>
+  <si>
+    <t>Supply Fan Status (on/off)</t>
+  </si>
+  <si>
+    <t>b12VAVDPSP</t>
+  </si>
+  <si>
+    <t>VAVDPSP</t>
+  </si>
+  <si>
+    <t>VAV Damper Position Set Point (%)</t>
+  </si>
+  <si>
+    <t>b13ZDPS</t>
+  </si>
+  <si>
+    <t>ZDPS</t>
+  </si>
+  <si>
+    <t>Zone Damper Position Signal (%)</t>
+  </si>
+  <si>
+    <t>c01HCVS</t>
+  </si>
+  <si>
+    <t>HCVS</t>
+  </si>
+  <si>
+    <t>Heating-Coil Valve Signal (%)</t>
+  </si>
+  <si>
+    <t>Hot water system</t>
+  </si>
+  <si>
+    <t>c02HWLDP</t>
+  </si>
+  <si>
+    <t>HWLDP</t>
+  </si>
+  <si>
+    <t>Hot-Water Loop Differential Pressure</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>c03HWLDPSP</t>
+  </si>
+  <si>
+    <t>HWLDPSP</t>
+  </si>
+  <si>
+    <t>Hot-Water Loop Differential Pressure Set Point</t>
+  </si>
+  <si>
+    <t>c04HWRT</t>
+  </si>
+  <si>
+    <t>HWRT</t>
+  </si>
+  <si>
+    <t>Hot-Water Return Temp</t>
+  </si>
+  <si>
+    <t>c05HWST</t>
+  </si>
+  <si>
+    <t>HWST</t>
+  </si>
+  <si>
+    <t>Hot-Water Supply Temp</t>
+  </si>
+  <si>
+    <t>c06HWSTSP</t>
+  </si>
+  <si>
+    <t>HWSTSP</t>
+  </si>
+  <si>
+    <t>Hot-Water Supply Temp Set Point</t>
+  </si>
+  <si>
+    <t>d01ChWLDP</t>
+  </si>
+  <si>
+    <t>ChWLDP</t>
+  </si>
+  <si>
+    <t>Chilled-Water Loop Differential Pressure</t>
+  </si>
+  <si>
+    <t>Chilled water system</t>
+  </si>
+  <si>
+    <t>d02ChWLDSP</t>
+  </si>
+  <si>
+    <t>ChWLDSP</t>
+  </si>
+  <si>
+    <t>Chilled-Water Loop Differential Pressure Set Point</t>
+  </si>
+  <si>
+    <t>d03ChWRT</t>
+  </si>
+  <si>
+    <t>ChWRT</t>
+  </si>
+  <si>
+    <t>Chilled-Water Return Temp</t>
+  </si>
+  <si>
+    <t>d04ChWST</t>
+  </si>
+  <si>
+    <t>ChWST</t>
+  </si>
+  <si>
+    <t>Chilled-Water Supply Temp</t>
+  </si>
+  <si>
+    <t>d05ChWSTSP</t>
+  </si>
+  <si>
+    <t>ChWSTSP</t>
+  </si>
+  <si>
+    <t>Chilled-Water Supply Temp set point</t>
+  </si>
+  <si>
+    <t>d06CCV</t>
+  </si>
+  <si>
+    <t>CCV</t>
+  </si>
+  <si>
+    <t>Cooling-Coil Valve Signal (%)</t>
   </si>
 </sst>
 </file>
@@ -156,7 +496,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +515,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -188,13 +534,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2637,10 +2984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M31"/>
+  <dimension ref="A2:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2653,14 +3000,17 @@
     <col min="7" max="7" width="1.5703125" hidden="1" customWidth="1"/>
     <col min="8" max="11" width="11.85546875" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.85546875" customWidth="1"/>
+    <col min="14" max="19" width="8.140625" customWidth="1"/>
+    <col min="21" max="24" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f>IFERROR(Hoja1!B1,"")</f>
         <v>1</v>
@@ -2708,8 +3058,40 @@
         <f>L3&amp;A3&amp;"=&gt;array('"&amp;B3&amp;"'"&amp;H3&amp;I3&amp;J3&amp;K3&amp;")"</f>
         <v>1=&gt;array('ZT','ZRVS','ZOM')</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="6">
+        <f>IFERROR(MATCH(B3,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>6</v>
+      </c>
+      <c r="O3" s="6">
+        <f>IFERROR(MATCH(C3,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>9</v>
+      </c>
+      <c r="P3" s="6" t="str">
+        <f>IFERROR(MATCH(D3,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="Q3" s="6" t="str">
+        <f>IFERROR(MATCH(E3,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="U3" s="4" t="str">
+        <f>IF(N3&lt;&gt;"",","&amp;N3&amp;","&amp;$A3,"")</f>
+        <v>,6,1</v>
+      </c>
+      <c r="V3" s="4" t="str">
+        <f t="shared" ref="V3:X3" si="1">IF(O3&lt;&gt;"",","&amp;O3&amp;","&amp;$A3,"")</f>
+        <v>,9,1</v>
+      </c>
+      <c r="W3" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X3" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f>IFERROR(Hoja1!B2,"")</f>
         <v>2</v>
@@ -2734,11 +3116,11 @@
         <v>29</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H30" si="1">IF(C4&lt;&gt;"",",'"&amp;C4&amp;"'","")</f>
+        <f t="shared" ref="H4:H30" si="2">IF(C4&lt;&gt;"",",'"&amp;C4&amp;"'","")</f>
         <v>,'ZRVS'</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I30" si="2">IF(D4&lt;&gt;"",",'"&amp;D4&amp;"'","")</f>
+        <f t="shared" ref="I4:I30" si="3">IF(D4&lt;&gt;"",",'"&amp;D4&amp;"'","")</f>
         <v>,'OAT'</v>
       </c>
       <c r="J4" t="str">
@@ -2750,15 +3132,47 @@
         <v/>
       </c>
       <c r="L4" s="5" t="str">
-        <f t="shared" ref="L4:L30" si="3">IF(M3="$setofdata=array(","",",")</f>
+        <f t="shared" ref="L4:L30" si="4">IF(M3="$setofdata=array(","",",")</f>
         <v>,</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ref="M4:M30" si="4">L4&amp;A4&amp;"=&gt;array('"&amp;B4&amp;"'"&amp;H4&amp;I4&amp;J4&amp;K4&amp;")"</f>
+        <f t="shared" ref="M4:M30" si="5">L4&amp;A4&amp;"=&gt;array('"&amp;B4&amp;"'"&amp;H4&amp;I4&amp;J4&amp;K4&amp;")"</f>
         <v>,2=&gt;array('ZT','ZRVS','OAT')</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="6">
+        <f>IFERROR(MATCH(B4,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>6</v>
+      </c>
+      <c r="O4" s="6">
+        <f>IFERROR(MATCH(C4,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>9</v>
+      </c>
+      <c r="P4" s="6">
+        <f>IFERROR(MATCH(D4,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>5</v>
+      </c>
+      <c r="Q4" s="6" t="str">
+        <f>IFERROR(MATCH(E4,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="U4" s="4" t="str">
+        <f t="shared" ref="U4:U30" si="6">IF(N4&lt;&gt;"",","&amp;N4&amp;","&amp;$A4,"")</f>
+        <v>,6,2</v>
+      </c>
+      <c r="V4" s="4" t="str">
+        <f t="shared" ref="V4:V30" si="7">IF(O4&lt;&gt;"",","&amp;O4&amp;","&amp;$A4,"")</f>
+        <v>,9,2</v>
+      </c>
+      <c r="W4" s="4" t="str">
+        <f t="shared" ref="W4:W30" si="8">IF(P4&lt;&gt;"",","&amp;P4&amp;","&amp;$A4,"")</f>
+        <v>,5,2</v>
+      </c>
+      <c r="X4" s="4" t="str">
+        <f t="shared" ref="X4:X30" si="9">IF(Q4&lt;&gt;"",","&amp;Q4&amp;","&amp;$A4,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f>IFERROR(Hoja1!B3,"")</f>
         <v>3</v>
@@ -2786,11 +3200,11 @@
         <v>29</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,'OADPS'</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,'OAF'</v>
       </c>
       <c r="J5" t="str">
@@ -2802,15 +3216,47 @@
         <v>,'RAT'</v>
       </c>
       <c r="L5" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,3=&gt;array('MAT','OADPS','OAF','OAT','RAT')</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="6">
+        <f>IFERROR(MATCH(B5,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>14</v>
+      </c>
+      <c r="O5" s="6">
+        <f>IFERROR(MATCH(C5,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>15</v>
+      </c>
+      <c r="P5" s="6">
+        <f>IFERROR(MATCH(D5,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>16</v>
+      </c>
+      <c r="Q5" s="6">
+        <f>IFERROR(MATCH(E5,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>5</v>
+      </c>
+      <c r="U5" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,14,3</v>
+      </c>
+      <c r="V5" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>,15,3</v>
+      </c>
+      <c r="W5" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>,16,3</v>
+      </c>
+      <c r="X5" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>,5,3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f>IFERROR(Hoja1!B4,"")</f>
         <v>4</v>
@@ -2835,11 +3281,11 @@
         <v>29</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,'OADPS'</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,'OAF'</v>
       </c>
       <c r="J6" t="str">
@@ -2851,15 +3297,47 @@
         <v/>
       </c>
       <c r="L6" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,4=&gt;array('OAT','OADPS','OAF')</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="6">
+        <f>IFERROR(MATCH(B6,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>5</v>
+      </c>
+      <c r="O6" s="6">
+        <f>IFERROR(MATCH(C6,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>15</v>
+      </c>
+      <c r="P6" s="6">
+        <f>IFERROR(MATCH(D6,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>16</v>
+      </c>
+      <c r="Q6" s="6" t="str">
+        <f>IFERROR(MATCH(E6,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="U6" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,5,4</v>
+      </c>
+      <c r="V6" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>,15,4</v>
+      </c>
+      <c r="W6" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>,16,4</v>
+      </c>
+      <c r="X6" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f>IFERROR(Hoja1!B5,"")</f>
         <v>5</v>
@@ -2884,11 +3362,11 @@
         <v>29</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,'RAT'</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,'OADPS'</v>
       </c>
       <c r="J7" t="str">
@@ -2900,15 +3378,47 @@
         <v/>
       </c>
       <c r="L7" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,5=&gt;array('OAT','RAT','OADPS')</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="6">
+        <f>IFERROR(MATCH(B7,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>5</v>
+      </c>
+      <c r="O7" s="6">
+        <f>IFERROR(MATCH(C7,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>17</v>
+      </c>
+      <c r="P7" s="6">
+        <f>IFERROR(MATCH(D7,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>15</v>
+      </c>
+      <c r="Q7" s="6" t="str">
+        <f>IFERROR(MATCH(E7,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="U7" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,5,5</v>
+      </c>
+      <c r="V7" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>,17,5</v>
+      </c>
+      <c r="W7" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>,15,5</v>
+      </c>
+      <c r="X7" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f>IFERROR(Hoja1!B6,"")</f>
         <v>6</v>
@@ -2933,11 +3443,11 @@
         <v>29</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,'OADPS'</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J8" t="str">
@@ -2949,15 +3459,47 @@
         <v/>
       </c>
       <c r="L8" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,6=&gt;array('OAT','OADPS')</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="6">
+        <f>IFERROR(MATCH(B8,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>5</v>
+      </c>
+      <c r="O8" s="6">
+        <f>IFERROR(MATCH(C8,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>15</v>
+      </c>
+      <c r="P8" s="6" t="str">
+        <f>IFERROR(MATCH(D8,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="Q8" s="6" t="str">
+        <f>IFERROR(MATCH(E8,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="U8" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,5,6</v>
+      </c>
+      <c r="V8" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>,15,6</v>
+      </c>
+      <c r="W8" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X8" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f>IFERROR(Hoja1!B7,"")</f>
         <v>7</v>
@@ -2982,11 +3524,11 @@
         <v>29</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,'DATSP'</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,'OADPS'</v>
       </c>
       <c r="J9" t="str">
@@ -2998,15 +3540,47 @@
         <v/>
       </c>
       <c r="L9" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,7=&gt;array('CCV','DATSP','OADPS','OAT')</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="6">
+        <f>IFERROR(MATCH(B9,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>33</v>
+      </c>
+      <c r="O9" s="6">
+        <f>IFERROR(MATCH(C9,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>11</v>
+      </c>
+      <c r="P9" s="6">
+        <f>IFERROR(MATCH(D9,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>15</v>
+      </c>
+      <c r="Q9" s="6">
+        <f>IFERROR(MATCH(E9,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>5</v>
+      </c>
+      <c r="U9" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,33,7</v>
+      </c>
+      <c r="V9" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>,11,7</v>
+      </c>
+      <c r="W9" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>,15,7</v>
+      </c>
+      <c r="X9" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>,5,7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f>IFERROR(Hoja1!B8,"")</f>
         <v>8</v>
@@ -3031,11 +3605,11 @@
         <v>29</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,'OADPS'</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,'OAT'</v>
       </c>
       <c r="J10" t="str">
@@ -3047,15 +3621,47 @@
         <v/>
       </c>
       <c r="L10" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,8=&gt;array('CCV','OADPS','OAT')</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="6">
+        <f>IFERROR(MATCH(B10,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>33</v>
+      </c>
+      <c r="O10" s="6">
+        <f>IFERROR(MATCH(C10,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>15</v>
+      </c>
+      <c r="P10" s="6">
+        <f>IFERROR(MATCH(D10,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>5</v>
+      </c>
+      <c r="Q10" s="6" t="str">
+        <f>IFERROR(MATCH(E10,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="U10" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,33,8</v>
+      </c>
+      <c r="V10" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>,15,8</v>
+      </c>
+      <c r="W10" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>,5,8</v>
+      </c>
+      <c r="X10" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f>IFERROR(Hoja1!B9,"")</f>
         <v>9</v>
@@ -3080,11 +3686,11 @@
         <v>29</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,'OADPS'</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J11" t="str">
@@ -3096,15 +3702,47 @@
         <v/>
       </c>
       <c r="L11" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,9=&gt;array('CCV','OADPS')</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="6">
+        <f>IFERROR(MATCH(B11,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>33</v>
+      </c>
+      <c r="O11" s="6">
+        <f>IFERROR(MATCH(C11,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>15</v>
+      </c>
+      <c r="P11" s="6" t="str">
+        <f>IFERROR(MATCH(D11,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="Q11" s="6" t="str">
+        <f>IFERROR(MATCH(E11,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="U11" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,33,9</v>
+      </c>
+      <c r="V11" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>,15,9</v>
+      </c>
+      <c r="W11" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X11" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f>IFERROR(Hoja1!B10,"")</f>
         <v>10</v>
@@ -3129,11 +3767,11 @@
         <v>29</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,'MAT'</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,'OAT'</v>
       </c>
       <c r="J12" t="str">
@@ -3145,15 +3783,47 @@
         <v/>
       </c>
       <c r="L12" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,10=&gt;array('DAT','MAT','OAT','RAT')</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="6">
+        <f>IFERROR(MATCH(B12,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>10</v>
+      </c>
+      <c r="O12" s="6">
+        <f>IFERROR(MATCH(C12,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>14</v>
+      </c>
+      <c r="P12" s="6">
+        <f>IFERROR(MATCH(D12,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>5</v>
+      </c>
+      <c r="Q12" s="6">
+        <f>IFERROR(MATCH(E12,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>17</v>
+      </c>
+      <c r="U12" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,10,10</v>
+      </c>
+      <c r="V12" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>,14,10</v>
+      </c>
+      <c r="W12" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>,5,10</v>
+      </c>
+      <c r="X12" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>,17,10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f>IFERROR(Hoja1!B11,"")</f>
         <v>11</v>
@@ -3178,11 +3848,11 @@
         <v>29</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,'HCVS'</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,'OAT'</v>
       </c>
       <c r="J13" t="str">
@@ -3194,15 +3864,47 @@
         <v/>
       </c>
       <c r="L13" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,11=&gt;array('CCV','HCVS','OAT')</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="6">
+        <f>IFERROR(MATCH(B13,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>33</v>
+      </c>
+      <c r="O13" s="6">
+        <f>IFERROR(MATCH(C13,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>22</v>
+      </c>
+      <c r="P13" s="6">
+        <f>IFERROR(MATCH(D13,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>5</v>
+      </c>
+      <c r="Q13" s="6" t="str">
+        <f>IFERROR(MATCH(E13,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="U13" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,33,11</v>
+      </c>
+      <c r="V13" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>,22,11</v>
+      </c>
+      <c r="W13" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>,5,11</v>
+      </c>
+      <c r="X13" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f>IFERROR(Hoja1!B12,"")</f>
         <v>12</v>
@@ -3227,11 +3929,11 @@
         <v>29</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,'OAT'</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J14" t="str">
@@ -3243,15 +3945,47 @@
         <v/>
       </c>
       <c r="L14" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,12=&gt;array('ChWST','OAT')</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="6">
+        <f>IFERROR(MATCH(B14,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>31</v>
+      </c>
+      <c r="O14" s="6">
+        <f>IFERROR(MATCH(C14,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>5</v>
+      </c>
+      <c r="P14" s="6" t="str">
+        <f>IFERROR(MATCH(D14,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="Q14" s="6" t="str">
+        <f>IFERROR(MATCH(E14,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="U14" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,31,12</v>
+      </c>
+      <c r="V14" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>,5,12</v>
+      </c>
+      <c r="W14" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X14" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f>IFERROR(Hoja1!B13,"")</f>
         <v>13</v>
@@ -3276,11 +4010,11 @@
         <v>29</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,'CCV'</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,'OAT'</v>
       </c>
       <c r="J15" t="str">
@@ -3292,15 +4026,47 @@
         <v/>
       </c>
       <c r="L15" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,13=&gt;array('ChWST','CCV','OAT')</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="6">
+        <f>IFERROR(MATCH(B15,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>31</v>
+      </c>
+      <c r="O15" s="6">
+        <f>IFERROR(MATCH(C15,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>33</v>
+      </c>
+      <c r="P15" s="6">
+        <f>IFERROR(MATCH(D15,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>5</v>
+      </c>
+      <c r="Q15" s="6" t="str">
+        <f>IFERROR(MATCH(E15,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="U15" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,31,13</v>
+      </c>
+      <c r="V15" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>,33,13</v>
+      </c>
+      <c r="W15" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>,5,13</v>
+      </c>
+      <c r="X15" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f>IFERROR(Hoja1!B14,"")</f>
         <v>14</v>
@@ -3325,11 +4091,11 @@
         <v>29</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,'ChWST'</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,'OAT'</v>
       </c>
       <c r="J16" t="str">
@@ -3341,15 +4107,47 @@
         <v/>
       </c>
       <c r="L16" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,14=&gt;array('ChWRT','ChWST','OAT')</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="6">
+        <f>IFERROR(MATCH(B16,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>30</v>
+      </c>
+      <c r="O16" s="6">
+        <f>IFERROR(MATCH(C16,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>31</v>
+      </c>
+      <c r="P16" s="6">
+        <f>IFERROR(MATCH(D16,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>5</v>
+      </c>
+      <c r="Q16" s="6" t="str">
+        <f>IFERROR(MATCH(E16,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="U16" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,30,14</v>
+      </c>
+      <c r="V16" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>,31,14</v>
+      </c>
+      <c r="W16" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>,5,14</v>
+      </c>
+      <c r="X16" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f>IFERROR(Hoja1!B15,"")</f>
         <v>15</v>
@@ -3374,11 +4172,11 @@
         <v>29</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,'CCV'</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J17" t="str">
@@ -3390,15 +4188,47 @@
         <v/>
       </c>
       <c r="L17" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,15=&gt;array('ChWRT','CCV')</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="6">
+        <f>IFERROR(MATCH(B17,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>30</v>
+      </c>
+      <c r="O17" s="6">
+        <f>IFERROR(MATCH(C17,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>33</v>
+      </c>
+      <c r="P17" s="6" t="str">
+        <f>IFERROR(MATCH(D17,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="Q17" s="6" t="str">
+        <f>IFERROR(MATCH(E17,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="U17" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,30,15</v>
+      </c>
+      <c r="V17" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>,33,15</v>
+      </c>
+      <c r="W17" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X17" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f>IFERROR(Hoja1!B16,"")</f>
         <v>16</v>
@@ -3423,11 +4253,11 @@
         <v>29</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,'OAT'</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J18" t="str">
@@ -3439,15 +4269,47 @@
         <v/>
       </c>
       <c r="L18" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,16=&gt;array('HWST','OAT')</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="6">
+        <f>IFERROR(MATCH(B18,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>26</v>
+      </c>
+      <c r="O18" s="6">
+        <f>IFERROR(MATCH(C18,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>5</v>
+      </c>
+      <c r="P18" s="6" t="str">
+        <f>IFERROR(MATCH(D18,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="Q18" s="6" t="str">
+        <f>IFERROR(MATCH(E18,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="U18" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,26,16</v>
+      </c>
+      <c r="V18" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>,5,16</v>
+      </c>
+      <c r="W18" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X18" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f>IFERROR(Hoja1!B17,"")</f>
         <v>17</v>
@@ -3472,11 +4334,11 @@
         <v>29</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,'HWST'</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,'OAT'</v>
       </c>
       <c r="J19" t="str">
@@ -3488,15 +4350,47 @@
         <v/>
       </c>
       <c r="L19" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,17=&gt;array('HWRT','HWST','OAT')</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="6">
+        <f>IFERROR(MATCH(B19,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>25</v>
+      </c>
+      <c r="O19" s="6">
+        <f>IFERROR(MATCH(C19,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>26</v>
+      </c>
+      <c r="P19" s="6">
+        <f>IFERROR(MATCH(D19,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>5</v>
+      </c>
+      <c r="Q19" s="6" t="str">
+        <f>IFERROR(MATCH(E19,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="U19" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,25,17</v>
+      </c>
+      <c r="V19" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>,26,17</v>
+      </c>
+      <c r="W19" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>,5,17</v>
+      </c>
+      <c r="X19" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f>IFERROR(Hoja1!B18,"")</f>
         <v>18</v>
@@ -3521,11 +4415,11 @@
         <v>29</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,'HCVS'</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J20" t="str">
@@ -3537,15 +4431,47 @@
         <v/>
       </c>
       <c r="L20" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,18=&gt;array('HWLDP','HCVS')</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="6">
+        <f>IFERROR(MATCH(B20,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>23</v>
+      </c>
+      <c r="O20" s="6">
+        <f>IFERROR(MATCH(C20,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>22</v>
+      </c>
+      <c r="P20" s="6" t="str">
+        <f>IFERROR(MATCH(D20,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="Q20" s="6" t="str">
+        <f>IFERROR(MATCH(E20,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="U20" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,23,18</v>
+      </c>
+      <c r="V20" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>,22,18</v>
+      </c>
+      <c r="W20" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X20" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f>IFERROR(Hoja1!B19,"")</f>
         <v>19</v>
@@ -3570,11 +4496,11 @@
         <v>29</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,'OADPS'</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,'OAF'</v>
       </c>
       <c r="J21" t="str">
@@ -3586,15 +4512,47 @@
         <v/>
       </c>
       <c r="L21" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,19=&gt;array('OAT','OADPS','OAF','OM')</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="6">
+        <f>IFERROR(MATCH(B21,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>5</v>
+      </c>
+      <c r="O21" s="6">
+        <f>IFERROR(MATCH(C21,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>15</v>
+      </c>
+      <c r="P21" s="6">
+        <f>IFERROR(MATCH(D21,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>16</v>
+      </c>
+      <c r="Q21" s="6">
+        <f>IFERROR(MATCH(E21,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>4</v>
+      </c>
+      <c r="U21" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,5,19</v>
+      </c>
+      <c r="V21" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>,15,19</v>
+      </c>
+      <c r="W21" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>,16,19</v>
+      </c>
+      <c r="X21" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>,4,19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f>IFERROR(Hoja1!B20,"")</f>
         <v>20</v>
@@ -3619,11 +4577,11 @@
         <v>29</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,'OADPS'</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,'OM'</v>
       </c>
       <c r="J22" t="str">
@@ -3635,15 +4593,47 @@
         <v/>
       </c>
       <c r="L22" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,20=&gt;array('OAT','OADPS','OM')</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="6">
+        <f>IFERROR(MATCH(B22,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>5</v>
+      </c>
+      <c r="O22" s="6">
+        <f>IFERROR(MATCH(C22,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>15</v>
+      </c>
+      <c r="P22" s="6">
+        <f>IFERROR(MATCH(D22,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>4</v>
+      </c>
+      <c r="Q22" s="6" t="str">
+        <f>IFERROR(MATCH(E22,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="U22" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,5,20</v>
+      </c>
+      <c r="V22" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>,15,20</v>
+      </c>
+      <c r="W22" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>,4,20</v>
+      </c>
+      <c r="X22" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f>IFERROR(Hoja1!B21,"")</f>
         <v>21</v>
@@ -3668,11 +4658,11 @@
         <v>29</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,'DSPSP'</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J23" t="str">
@@ -3684,15 +4674,47 @@
         <v/>
       </c>
       <c r="L23" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,21=&gt;array('DSP','DSPSP')</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="6">
+        <f>IFERROR(MATCH(B23,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>12</v>
+      </c>
+      <c r="O23" s="6">
+        <f>IFERROR(MATCH(C23,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>13</v>
+      </c>
+      <c r="P23" s="6" t="str">
+        <f>IFERROR(MATCH(D23,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="Q23" s="6" t="str">
+        <f>IFERROR(MATCH(E23,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="U23" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,12,21</v>
+      </c>
+      <c r="V23" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>,13,21</v>
+      </c>
+      <c r="W23" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X23" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f>IFERROR(Hoja1!B22,"")</f>
         <v>22</v>
@@ -3717,11 +4739,11 @@
         <v>29</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J24" t="str">
@@ -3733,15 +4755,47 @@
         <v/>
       </c>
       <c r="L24" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,22=&gt;array('DSP')</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="6">
+        <f>IFERROR(MATCH(B24,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>12</v>
+      </c>
+      <c r="O24" s="6" t="str">
+        <f>IFERROR(MATCH(C24,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="P24" s="6" t="str">
+        <f>IFERROR(MATCH(D24,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="Q24" s="6" t="str">
+        <f>IFERROR(MATCH(E24,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="U24" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,12,22</v>
+      </c>
+      <c r="V24" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W24" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X24" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f>IFERROR(Hoja1!B23,"")</f>
         <v>23</v>
@@ -3766,11 +4820,11 @@
         <v>29</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J25" t="str">
@@ -3782,15 +4836,47 @@
         <v/>
       </c>
       <c r="L25" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,23=&gt;array('VAVDPSP')</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="6">
+        <f>IFERROR(MATCH(B25,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>20</v>
+      </c>
+      <c r="O25" s="6" t="str">
+        <f>IFERROR(MATCH(C25,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="P25" s="6" t="str">
+        <f>IFERROR(MATCH(D25,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="Q25" s="6" t="str">
+        <f>IFERROR(MATCH(E25,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="U25" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,20,23</v>
+      </c>
+      <c r="V25" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W25" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X25" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f>IFERROR(Hoja1!B24,"")</f>
         <v>24</v>
@@ -3815,11 +4901,11 @@
         <v>29</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,'DATSP'</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J26" t="str">
@@ -3831,15 +4917,47 @@
         <v/>
       </c>
       <c r="L26" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,24=&gt;array('DAT','DATSP')</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="6">
+        <f>IFERROR(MATCH(B26,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>10</v>
+      </c>
+      <c r="O26" s="6">
+        <f>IFERROR(MATCH(C26,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>11</v>
+      </c>
+      <c r="P26" s="6" t="str">
+        <f>IFERROR(MATCH(D26,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="Q26" s="6" t="str">
+        <f>IFERROR(MATCH(E26,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="U26" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,10,24</v>
+      </c>
+      <c r="V26" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>,11,24</v>
+      </c>
+      <c r="W26" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X26" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f>IFERROR(Hoja1!B25,"")</f>
         <v>25</v>
@@ -3864,11 +4982,11 @@
         <v>29</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,'DATSP'</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,'OAT'</v>
       </c>
       <c r="J27" t="str">
@@ -3880,15 +4998,47 @@
         <v/>
       </c>
       <c r="L27" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,25=&gt;array('DAT','DATSP','OAT')</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="6">
+        <f>IFERROR(MATCH(B27,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>10</v>
+      </c>
+      <c r="O27" s="6">
+        <f>IFERROR(MATCH(C27,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>11</v>
+      </c>
+      <c r="P27" s="6">
+        <f>IFERROR(MATCH(D27,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>5</v>
+      </c>
+      <c r="Q27" s="6" t="str">
+        <f>IFERROR(MATCH(E27,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="U27" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,10,25</v>
+      </c>
+      <c r="V27" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>,11,25</v>
+      </c>
+      <c r="W27" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>,5,25</v>
+      </c>
+      <c r="X27" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f>IFERROR(Hoja1!B26,"")</f>
         <v>26</v>
@@ -3913,11 +5063,11 @@
         <v>29</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J28" t="str">
@@ -3929,15 +5079,47 @@
         <v/>
       </c>
       <c r="L28" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,26=&gt;array('ZRVS')</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="6">
+        <f>IFERROR(MATCH(B28,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>9</v>
+      </c>
+      <c r="O28" s="6" t="str">
+        <f>IFERROR(MATCH(C28,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="P28" s="6" t="str">
+        <f>IFERROR(MATCH(D28,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="Q28" s="6" t="str">
+        <f>IFERROR(MATCH(E28,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="U28" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,9,26</v>
+      </c>
+      <c r="V28" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W28" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X28" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f>IFERROR(Hoja1!B27,"")</f>
         <v>27</v>
@@ -3962,11 +5144,11 @@
         <v>29</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J29" t="str">
@@ -3978,15 +5160,47 @@
         <v/>
       </c>
       <c r="L29" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,27=&gt;array('DSP')</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="6">
+        <f>IFERROR(MATCH(B29,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>12</v>
+      </c>
+      <c r="O29" s="6" t="str">
+        <f>IFERROR(MATCH(C29,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="P29" s="6" t="str">
+        <f>IFERROR(MATCH(D29,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="Q29" s="6" t="str">
+        <f>IFERROR(MATCH(E29,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="U29" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,12,27</v>
+      </c>
+      <c r="V29" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W29" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X29" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f>IFERROR(Hoja1!B28,"")</f>
         <v>28</v>
@@ -4011,11 +5225,11 @@
         <v>29</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J30" t="str">
@@ -4027,17 +5241,1267 @@
         <v/>
       </c>
       <c r="L30" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,28=&gt;array('SFS')</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="6">
+        <f>IFERROR(MATCH(B30,Hoja2!$C$1:$C$33,0),"")</f>
+        <v>19</v>
+      </c>
+      <c r="O30" s="6" t="str">
+        <f>IFERROR(MATCH(C30,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="P30" s="6" t="str">
+        <f>IFERROR(MATCH(D30,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="Q30" s="6" t="str">
+        <f>IFERROR(MATCH(E30,Hoja2!$C$1:$C$33,0),"")</f>
+        <v/>
+      </c>
+      <c r="U30" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>,19,28</v>
+      </c>
+      <c r="V30" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W30" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X30" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M31" t="s">
         <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1">
+        <v>41685</v>
+      </c>
+      <c r="L1">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2">
+        <v>41685</v>
+      </c>
+      <c r="L2">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3">
+        <v>41685</v>
+      </c>
+      <c r="L3">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4">
+        <v>41685</v>
+      </c>
+      <c r="L4">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5">
+        <v>41685</v>
+      </c>
+      <c r="L5">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6">
+        <v>41685</v>
+      </c>
+      <c r="L6">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
+        <v>41685</v>
+      </c>
+      <c r="L7">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8">
+        <v>41685</v>
+      </c>
+      <c r="L8">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9">
+        <v>41685</v>
+      </c>
+      <c r="L9">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10">
+        <v>41685</v>
+      </c>
+      <c r="L10">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11">
+        <v>41685</v>
+      </c>
+      <c r="L11">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12">
+        <v>41685</v>
+      </c>
+      <c r="L12">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13">
+        <v>41685</v>
+      </c>
+      <c r="L13">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14">
+        <v>41685</v>
+      </c>
+      <c r="L14">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15">
+        <v>41685</v>
+      </c>
+      <c r="L15">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16">
+        <v>41685</v>
+      </c>
+      <c r="L16">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17">
+        <v>41685</v>
+      </c>
+      <c r="L17">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18">
+        <v>41685</v>
+      </c>
+      <c r="L18">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19">
+        <v>41685</v>
+      </c>
+      <c r="L19">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20">
+        <v>41685</v>
+      </c>
+      <c r="L20">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21">
+        <v>41685</v>
+      </c>
+      <c r="L21">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22">
+        <v>41685</v>
+      </c>
+      <c r="L22">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23">
+        <v>41685</v>
+      </c>
+      <c r="L23">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24">
+        <v>41685</v>
+      </c>
+      <c r="L24">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25">
+        <v>41685</v>
+      </c>
+      <c r="L25">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26">
+        <v>41685</v>
+      </c>
+      <c r="L26">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27">
+        <v>41685</v>
+      </c>
+      <c r="L27">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" t="s">
+        <v>113</v>
+      </c>
+      <c r="I28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28">
+        <v>41685</v>
+      </c>
+      <c r="L28">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" t="s">
+        <v>113</v>
+      </c>
+      <c r="I29" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29">
+        <v>41685</v>
+      </c>
+      <c r="L29">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30">
+        <v>41685</v>
+      </c>
+      <c r="L30">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31">
+        <v>41685</v>
+      </c>
+      <c r="L31">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32">
+        <v>41685</v>
+      </c>
+      <c r="L32">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33">
+        <v>41685</v>
+      </c>
+      <c r="L33">
+        <v>41685</v>
       </c>
     </row>
   </sheetData>
